--- a/biology/Botanique/Dompte-venin_officinal/Dompte-venin_officinal.xlsx
+++ b/biology/Botanique/Dompte-venin_officinal/Dompte-venin_officinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincetoxicum hirundinaria
 Le Dompte-venin officinal (Vincetoxicum hirundinaria) est une espèce de plantes à fleurs de la famille des Asclépiadacées.
-La classification phylogénétique APG (1998)[1], la classification phylogénétique APG II (2003)[2] et la classification phylogénétique APG III (2009)[3] incorporent cette famille aux Apocynaceae, sous-famille Asclepiadoideae.
+La classification phylogénétique APG (1998), la classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) incorporent cette famille aux Apocynaceae, sous-famille Asclepiadoideae.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace assez grande, à tige non ramifiée, érigée, isolée ou en touffe, à feuilles lancéolées, opposées. 
 Les fleurs blanc jaune-verdâtre ou blanches à cinq pétales soudés se développent à l'aisselle des feuilles supérieures. La déhiscence des fruits se fait en fuseaux ovoïdes, laissant échapper à l'automne des graines munies d'une aigrette de poils au sommet.
@@ -545,7 +559,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre le dompte-venin dans toute l'Europe, dans les bois et terrains rocailleux sur sol calcaire jusqu'à 1 800 m d'altitude.
 </t>
@@ -576,7 +592,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante toxique (les racines sont vénéneuses).
 </t>
